--- a/VolumeExport.xlsx
+++ b/VolumeExport.xlsx
@@ -375,7 +375,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Extension_Len</t>
+          <t>Extension_Length</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">

--- a/VolumeExport.xlsx
+++ b/VolumeExport.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,6 +403,16 @@
           <t>Base_Area</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Base_Area_m3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Volume/BaseArea</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -432,6 +442,12 @@
       <c r="I2">
         <v>683.4927516966294</v>
       </c>
+      <c r="J2">
+        <v>0.06834927516966294</v>
+      </c>
+      <c r="K2">
+        <v>716.2000000000002</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -461,6 +477,12 @@
       <c r="I3">
         <v>683.4927516966294</v>
       </c>
+      <c r="J3">
+        <v>0.06834927516966294</v>
+      </c>
+      <c r="K3">
+        <v>713.2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -490,6 +512,12 @@
       <c r="I4">
         <v>683.4927516966294</v>
       </c>
+      <c r="J4">
+        <v>0.06834927516966294</v>
+      </c>
+      <c r="K4">
+        <v>770.1999999999999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -519,6 +547,12 @@
       <c r="I5">
         <v>683.4927516966294</v>
       </c>
+      <c r="J5">
+        <v>0.06834927516966294</v>
+      </c>
+      <c r="K5">
+        <v>708.1999999999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -548,6 +582,12 @@
       <c r="I6">
         <v>683.4927516966294</v>
       </c>
+      <c r="J6">
+        <v>0.06834927516966294</v>
+      </c>
+      <c r="K6">
+        <v>738.2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -576,6 +616,12 @@
       </c>
       <c r="I7">
         <v>683.4927516966294</v>
+      </c>
+      <c r="J7">
+        <v>0.06834927516966294</v>
+      </c>
+      <c r="K7">
+        <v>761.7</v>
       </c>
     </row>
   </sheetData>
